--- a/script/正常报备测试数据3条.xlsx
+++ b/script/正常报备测试数据3条.xlsx
@@ -489,112 +489,112 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>测试11</t>
+          <t>上线前最后的供应商1126</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>劳动合同</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>23020819970712971X</t>
+          <t>370782200111186032</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15699688269</t>
+          <t>13878959444</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44752.46484953703</v>
+        <v>44754.97825231482</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>周杨</t>
+          <t>沈红</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>管小芳</t>
+          <t>李勇</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>李勇</t>
+          <t>院校12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>130638199807260973</t>
+          <t>360103199112306889</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13332787681</t>
+          <t>15102024764</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44751.91833333333</v>
+        <v>44755.51246527778</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>何琴</t>
+          <t>王玉兰</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>战丽梅</t>
+          <t>院校12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -604,25 +604,25 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>440601200103277318</t>
+          <t>140932200101016464</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13783020185</t>
+          <t>18256557723</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44751.83387731481</v>
+        <v>44755.2919675926</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>盛建国</t>
+          <t>瞿红霞</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>

--- a/script/正常报备测试数据3条.xlsx
+++ b/script/正常报备测试数据3条.xlsx
@@ -489,135 +489,135 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>测试11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>劳动合同</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>370782200111186032</t>
+          <t>440404198804104055</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13878959444</t>
+          <t>15250131176</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44754.97825231482</v>
+        <v>44761.3678125</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>沈红</t>
+          <t>李琳</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>李勇</t>
+          <t>战丽梅</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>院校</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>院校12</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>兼职协议</t>
+          <t>劳动合同</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>360103199112306889</t>
+          <t>469026200207306765</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15102024764</t>
+          <t>14733418774</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44755.51246527778</v>
+        <v>44761.21695601852</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>王玉兰</t>
+          <t>薛辉</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>朱继梅</t>
+          <t>仵鹏</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>院校</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>院校12</t>
+          <t>管小芳</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>劳动合同</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>140932200101016464</t>
+          <t>654202199908231087</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18256557723</t>
+          <t>18766347248</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44755.2919675926</v>
+        <v>44760.65611111111</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>瞿红霞</t>
+          <t>刘雪</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
